--- a/FRONTEND/public/templates/Sample_Retailers_Template.xlsx
+++ b/FRONTEND/public/templates/Sample_Retailers_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haris\Desktop\Concept Promotions\ConceptPromotions_Website\FRONTEND\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7279315-BA1A-43EF-A531-B1895B07953A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50283B0C-93EE-4787-A6AD-3ACD85CA0255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
